--- a/data/trans_camb/P2A_senso_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2A_senso_R-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-0.1743068209258547</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.387250970990615</v>
+        <v>1.387250970990614</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.8254137598920342</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.275353625436874</v>
+        <v>-1.252432556922659</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.734805039242392</v>
+        <v>-2.767567966552444</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.800462529169211</v>
+        <v>-1.668046015660193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.04127644287176233</v>
+        <v>-0.0438455175766551</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.275801177525487</v>
+        <v>-1.363179851044764</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1858546114689693</v>
+        <v>0.1694398555741691</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2316265215516836</v>
+        <v>-0.1616186489921173</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.709699917188088</v>
+        <v>-1.615249311440764</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.4727471711949524</v>
+        <v>-0.4437579331126796</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.891373122977464</v>
+        <v>2.021485506644516</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.07591492466402205</v>
+        <v>-0.04239852274095626</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.38538017385951</v>
+        <v>1.397271801284599</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.97948935495215</v>
+        <v>2.882528674451047</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9156066467114313</v>
+        <v>0.8214779199994989</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.021951848873237</v>
+        <v>3.086538097071345</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.974817188109075</v>
+        <v>1.867341850784857</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.05619529332193827</v>
+        <v>0.03541680424555796</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.582813298589687</v>
+        <v>1.602231457259715</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4700432850473794</v>
+        <v>-0.4272834899532691</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8698037751223939</v>
+        <v>-0.8655793305472231</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5763819925011944</v>
+        <v>-0.5528839136406877</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1374596397952051</v>
+        <v>-0.1168127723395704</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.740098746691899</v>
+        <v>-0.7856825514466201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.008439482557918741</v>
+        <v>-0.01515750760706971</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1286264534059035</v>
+        <v>-0.08855050000942398</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7482558102516397</v>
+        <v>-0.7219441452240809</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2279594126006829</v>
+        <v>-0.236800246756752</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.283328573791595</v>
+        <v>1.366582507912897</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.06251391138212149</v>
+        <v>0.09822069245977437</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.070275039740629</v>
+        <v>1.043929966872219</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.093383399710059</v>
+        <v>4.681693337311242</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.641629754354781</v>
+        <v>1.43702044833302</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.063282481012887</v>
+        <v>4.343164505656214</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.548500598473549</v>
+        <v>1.483837227764936</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.01617443541500919</v>
+        <v>0.09148210470891971</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.265945524888674</v>
+        <v>1.204106384345781</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.5343340506193615</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8925627936559264</v>
+        <v>0.8925627936559268</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.3206839128301098</v>
@@ -878,7 +878,7 @@
         <v>-0.5068332230238017</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.138589057822177</v>
+        <v>1.138589057822178</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9942005254779273</v>
+        <v>-1.055594670423601</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.622615534665614</v>
+        <v>-1.549986222177739</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3479630757120315</v>
+        <v>-0.3478067455396154</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8348148019116449</v>
+        <v>-0.8918648299902521</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.601145292343149</v>
+        <v>-1.570840448917084</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2065247974224925</v>
+        <v>0.2751369347796255</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5893523307971165</v>
+        <v>-0.6023625467240388</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.266463770429126</v>
+        <v>-1.359345196313728</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3524648372653966</v>
+        <v>0.2277071250029119</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.293165926828959</v>
+        <v>1.271691519482098</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4394353263528628</v>
+        <v>0.4744116229013978</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.293432311799828</v>
+        <v>2.362804626194123</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.634327508244533</v>
+        <v>1.592302868686617</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4696176564821968</v>
+        <v>0.6357969131337212</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.548786542322067</v>
+        <v>2.718093410630216</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.075556227687646</v>
+        <v>1.0643351101769</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.195657314138141</v>
+        <v>0.204631616487361</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.050935237253924</v>
+        <v>2.034380973561129</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3623519277755398</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.6052802522449374</v>
+        <v>0.6052802522449376</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1872501970787135</v>
@@ -983,7 +983,7 @@
         <v>-0.3179595336931798</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.7142887037543215</v>
+        <v>0.7142887037543216</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5424187626482826</v>
+        <v>-0.5655981766504666</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7736715657344826</v>
+        <v>-0.7830160516112604</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2310836968101063</v>
+        <v>-0.2342931537979429</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3878082691380286</v>
+        <v>-0.3988187634900094</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6905633378100882</v>
+        <v>-0.6817239617258307</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05229586959734495</v>
+        <v>0.0510081733473686</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.305720290584538</v>
+        <v>-0.2996327705219552</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6297735336964989</v>
+        <v>-0.6538505378933014</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1326195642037475</v>
+        <v>0.08728323958922241</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.366800659274263</v>
+        <v>1.435141355872245</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5305964858306543</v>
+        <v>0.6107327657953916</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.367296176351903</v>
+        <v>2.428638697376511</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.428803337928298</v>
+        <v>1.445895013671215</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4942914078534307</v>
+        <v>0.5810616035820475</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.385141687809955</v>
+        <v>2.543037480325847</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8715924783500418</v>
+        <v>0.9624413218858415</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.172299998692256</v>
+        <v>0.2190926126522961</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.786453796639214</v>
+        <v>1.661331799117493</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.35291258577355</v>
+        <v>-1.328870471322303</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.524126629397592</v>
+        <v>-1.498554183201644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.064612324773642</v>
+        <v>1.143242168252889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.460384009582182</v>
+        <v>-1.244846750585459</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.102687798446391</v>
+        <v>-1.922751609342516</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.542595852543288</v>
+        <v>1.435225731803946</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.054176945685351</v>
+        <v>-1.024675001426308</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.348788421378286</v>
+        <v>-1.432454150519264</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.86918093574025</v>
+        <v>1.918194878781994</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9463492107155388</v>
+        <v>0.9795999836792831</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9397685580011573</v>
+        <v>0.9617373634253165</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.370314151711311</v>
+        <v>4.525357336463623</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.291753202291736</v>
+        <v>1.269644873629262</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2999205298806365</v>
+        <v>0.3701074718555528</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.823691399898258</v>
+        <v>4.908053791427327</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.684920239448936</v>
+        <v>0.7597323416885104</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3016304414999267</v>
+        <v>0.3077835042463796</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.180958458083943</v>
+        <v>4.385250236784402</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7646062620297429</v>
+        <v>-0.7548586863268031</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8487920172661406</v>
+        <v>-0.8527824155097884</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4134113539302361</v>
+        <v>0.5013366984154725</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6263821319299494</v>
+        <v>-0.600893731232764</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8468271856858398</v>
+        <v>-0.8192564817184381</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5949944264027649</v>
+        <v>0.4702054846731931</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5478980540549062</v>
+        <v>-0.5410806898524938</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7293891889139119</v>
+        <v>-0.7540978903329779</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.9453021105464656</v>
+        <v>0.8682853905516398</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.770006963032084</v>
+        <v>1.835377872361346</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.11319820810888</v>
+        <v>2.086725774834715</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>6.757889746716279</v>
+        <v>7.96616675530941</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.533727873588638</v>
+        <v>1.962032969458754</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.457508056867161</v>
+        <v>0.6371769826850283</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.329225829064504</v>
+        <v>4.821200423864997</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7530688132255837</v>
+        <v>0.8905246993572573</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4756117399708679</v>
+        <v>0.3904100037417871</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>4.285988503991736</v>
+        <v>4.563423735147463</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.1207450628560357</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3053798196219896</v>
+        <v>0.30537981962199</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.6590752897147396</v>
@@ -1297,7 +1297,7 @@
         <v>-0.8731975334170262</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.7114591521926564</v>
+        <v>0.7114591521926568</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.4578107713465122</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8553863495430417</v>
+        <v>-0.9548481960535673</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.134279517509843</v>
+        <v>-1.200198982982019</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8599931713138896</v>
+        <v>-0.72479540383024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5829404099297305</v>
+        <v>-0.5895857859659475</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.967567195222685</v>
+        <v>-2.003535469392248</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.5161802851706979</v>
+        <v>-0.518724996777738</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4204163706453717</v>
+        <v>-0.4873506316112978</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.3537278795404</v>
+        <v>-1.277132055003463</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.2780418463878305</v>
+        <v>-0.3207034592280001</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.397705383582835</v>
+        <v>1.31773218774065</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9464079246878728</v>
+        <v>0.984102412662006</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.462221876767304</v>
+        <v>1.344375504566063</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.079659661070465</v>
+        <v>2.143432046730496</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2324847831702153</v>
+        <v>0.2326264606868565</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.776522498214015</v>
+        <v>1.784418718172249</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.388357043747816</v>
+        <v>1.409528972884965</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2034294902452073</v>
+        <v>0.2949068404023394</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.286140493995062</v>
+        <v>1.374379414577974</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.08665410633609623</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2191593986246287</v>
+        <v>0.2191593986246289</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3358239172706344</v>
@@ -1402,7 +1402,7 @@
         <v>-0.4449273410782577</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3625154867675189</v>
+        <v>0.362515486767519</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2705999895584775</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4801336686049483</v>
+        <v>-0.5015061682562718</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6318791038623063</v>
+        <v>-0.6187029968897285</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4689648792312616</v>
+        <v>-0.4258175183797785</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2565122563212947</v>
+        <v>-0.2266221994914653</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7405728510223383</v>
+        <v>-0.7777829792694892</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2185567177945519</v>
+        <v>-0.211344029286862</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1983352335839304</v>
+        <v>-0.224059168479393</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6124208969182505</v>
+        <v>-0.6000807765664818</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1396556403746155</v>
+        <v>-0.1513324689167585</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.520665438809637</v>
+        <v>1.339705154217018</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.125881532791144</v>
+        <v>1.107364247605108</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.576429387638994</v>
+        <v>1.576146296604541</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.458671147524617</v>
+        <v>1.666673054156799</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3126428895414605</v>
+        <v>0.2065965430773889</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.334437127257349</v>
+        <v>1.309002607104852</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.189365400602657</v>
+        <v>1.101549068304521</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1827898093776724</v>
+        <v>0.2360383549002502</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9632630514960883</v>
+        <v>1.074833811015031</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-0.593532243017768</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1.571762213672231</v>
+        <v>1.57176221367223</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.3375140030689432</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4765025440357321</v>
+        <v>-0.4817827841259929</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.056673425951921</v>
+        <v>-1.099199656433419</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2419736692082083</v>
+        <v>0.2381297645340701</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.1816305185952086</v>
+        <v>-0.1320542594783256</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.197692591983375</v>
+        <v>-1.168616491047819</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9303932081381189</v>
+        <v>0.886053950993462</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1371870450169951</v>
+        <v>-0.1854148260049639</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.9552204224252397</v>
+        <v>-0.9422789487742664</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.7599440150127458</v>
+        <v>0.8014221219909579</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7497818488737716</v>
+        <v>0.810567499961756</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.07246387222178372</v>
+        <v>0.08439416269470519</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.653760173962018</v>
+        <v>1.716718834431219</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.235987020700036</v>
+        <v>1.253642957056308</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.0285582313182852</v>
+        <v>-0.04717459289232304</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.174419627064028</v>
+        <v>2.287606553347768</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.795635297889119</v>
+        <v>0.7823525282394849</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.1362685076381577</v>
+        <v>-0.1535965691640576</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.708044868366108</v>
+        <v>1.743379057132088</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.3580343309502114</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.9481284954693089</v>
+        <v>0.9481284954693084</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2104701161591244</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2746192258288391</v>
+        <v>-0.2652268974515355</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5789201929528356</v>
+        <v>-0.572062577487442</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.11954106841531</v>
+        <v>0.1132148501113103</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.0985322935910989</v>
+        <v>-0.07000732925102793</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5878960045562956</v>
+        <v>-0.5886673467913278</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4516692455804637</v>
+        <v>0.4233040969343767</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.08006593536852691</v>
+        <v>-0.09285030442578647</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5216025426905698</v>
+        <v>-0.5242170743723937</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4197680603123648</v>
+        <v>0.4302047873490845</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.598247849501919</v>
+        <v>0.6413242232905922</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.08125335419605736</v>
+        <v>0.08389148665027592</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.337966115359523</v>
+        <v>1.421001099366693</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8905414995524754</v>
+        <v>0.9342571909300746</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.01336527468968083</v>
+        <v>-0.03259679734493327</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.637588290845625</v>
+        <v>1.72213194009841</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5565654443964506</v>
+        <v>0.5683272723797771</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.09809258294524946</v>
+        <v>-0.1108378135248572</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.253436879659351</v>
+        <v>1.237774236844872</v>
       </c>
     </row>
     <row r="34">
